--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="129">
   <si>
     <t>Execution</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>Test promo 17-2-16</t>
+  </si>
+  <si>
+    <t>cSAmendContract_SystemLetter_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_SystemLetter_END</t>
+  </si>
+  <si>
+    <t>LetterName</t>
+  </si>
+  <si>
+    <t>No Stock Sub Ext By 1</t>
   </si>
 </sst>
 </file>
@@ -463,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -479,6 +491,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,15 +831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -2042,6 +2055,62 @@
         <v>123</v>
       </c>
     </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -2056,9 +2125,10 @@
     <hyperlink ref="C43" r:id="rId10"/>
     <hyperlink ref="C48" r:id="rId11"/>
     <hyperlink ref="C53" r:id="rId12"/>
+    <hyperlink ref="C58" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <ignoredErrors>
     <ignoredError sqref="O3:P3 N8:O8" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="158">
   <si>
     <t>Execution</t>
   </si>
@@ -404,6 +404,93 @@
   </si>
   <si>
     <t>No Stock Sub Ext By 1</t>
+  </si>
+  <si>
+    <t>cSAmendContract_Suspend_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_Suspend_END</t>
+  </si>
+  <si>
+    <t>DOVECU4347471</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Payment rejected</t>
+  </si>
+  <si>
+    <t>cSAmendContract_Resume_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_Resume_END</t>
+  </si>
+  <si>
+    <t>Contract Resumption - Finance Authorised</t>
+  </si>
+  <si>
+    <t>AUG-16</t>
+  </si>
+  <si>
+    <t>ResumeStartingFrom</t>
+  </si>
+  <si>
+    <t>cSAmendContract_RefundAmount_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_RefundAmount_END</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>SFG FSG DFSG</t>
+  </si>
+  <si>
+    <t>BACS Subscriber deceased</t>
+  </si>
+  <si>
+    <t>MailingMethod</t>
+  </si>
+  <si>
+    <t>Surface Mail</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>cSAmendContract_MailingMethod_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_MailingMethod_END</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>IssueType</t>
+  </si>
+  <si>
+    <t>NumberOfIssues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Change - Compensation </t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>cSAmendContract_ChangeTerm_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_ChangeTerm_END</t>
+  </si>
+  <si>
+    <t>DOVECU4347580</t>
+  </si>
+  <si>
+    <t>ADD_ENTITLEMENT</t>
   </si>
 </sst>
 </file>
@@ -475,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -492,6 +579,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,20 +919,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="56.42578125" bestFit="1" customWidth="1"/>
@@ -2111,6 +2201,322 @@
         <v>126</v>
       </c>
     </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="10">
+        <v>2</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -2126,9 +2532,14 @@
     <hyperlink ref="C48" r:id="rId11"/>
     <hyperlink ref="C53" r:id="rId12"/>
     <hyperlink ref="C58" r:id="rId13"/>
+    <hyperlink ref="C63" r:id="rId14"/>
+    <hyperlink ref="C68" r:id="rId15"/>
+    <hyperlink ref="C73" r:id="rId16"/>
+    <hyperlink ref="C78" r:id="rId17"/>
+    <hyperlink ref="C83" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <ignoredErrors>
     <ignoredError sqref="O3:P3 N8:O8" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
   <si>
     <t>Execution</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>SFG FSG DFSG</t>
-  </si>
-  <si>
     <t>BACS Subscriber deceased</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>NumberOfIssues</t>
   </si>
   <si>
-    <t xml:space="preserve">Term Change - Compensation </t>
-  </si>
-  <si>
     <t>PAID</t>
   </si>
   <si>
@@ -491,13 +485,76 @@
   </si>
   <si>
     <t>ADD_ENTITLEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Change - Compensation  </t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>AddressLine3</t>
+  </si>
+  <si>
+    <t>AddressLine4</t>
+  </si>
+  <si>
+    <t>AddressLine5</t>
+  </si>
+  <si>
+    <t>AddressLine6</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>7 RUSHDON CLOSE</t>
+  </si>
+  <si>
+    <t>ROMFORD</t>
+  </si>
+  <si>
+    <t>ESSEX</t>
+  </si>
+  <si>
+    <t>RM1 2RF</t>
+  </si>
+  <si>
+    <t>DOVECU1033324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSunil </t>
+  </si>
+  <si>
+    <t>FB16ARA</t>
+  </si>
+  <si>
+    <t>Sreejith</t>
+  </si>
+  <si>
+    <t>Sreejith Test</t>
+  </si>
+  <si>
+    <t>RC109</t>
+  </si>
+  <si>
+    <t>MATCH OF THE DAY</t>
+  </si>
+  <si>
+    <t>4242424242424242</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +566,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -580,6 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -921,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +995,7 @@
     <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
@@ -940,7 +1005,7 @@
     <col min="12" max="12" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="55.28515625" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
@@ -1010,7 +1075,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1019,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -1031,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -1046,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -1117,7 +1182,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -1126,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>174</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
@@ -1138,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -1239,7 +1304,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -1248,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1260,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -1275,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>16</v>
@@ -1290,7 +1355,7 @@
         <v>48</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>27</v>
@@ -1364,7 +1429,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -1375,7 +1440,7 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1385,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -1474,7 +1539,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
@@ -1596,7 +1661,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>4</v>
@@ -1617,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
@@ -1706,7 +1771,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>4</v>
@@ -1727,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>16</v>
@@ -1801,7 +1866,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
@@ -1825,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>16</v>
@@ -1881,7 +1946,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>4</v>
@@ -1967,7 +2032,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>4</v>
@@ -1991,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>16</v>
@@ -2086,7 +2151,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>4</v>
@@ -2113,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>16</v>
@@ -2175,7 +2240,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>4</v>
@@ -2231,7 +2296,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>4</v>
@@ -2257,12 +2322,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
@@ -2288,9 +2353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>4</v>
@@ -2314,17 +2379,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
@@ -2341,21 +2406,48 @@
         <v>103</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S72" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>4</v>
@@ -2367,32 +2459,53 @@
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J73" s="9" t="s">
+      <c r="H73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S73" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
@@ -2409,15 +2522,15 @@
         <v>103</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>4</v>
@@ -2432,20 +2545,20 @@
         <v>131</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,16 +2578,16 @@
         <v>103</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>0</v>
@@ -2482,7 +2595,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>4</v>
@@ -2494,16 +2607,16 @@
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J83" s="10">
         <v>2</v>
@@ -2514,7 +2627,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Service" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="184">
   <si>
     <t>Execution</t>
   </si>
@@ -548,6 +548,27 @@
   </si>
   <si>
     <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>productOnlySchedule_START</t>
+  </si>
+  <si>
+    <t>productOnlySchedule_END</t>
+  </si>
+  <si>
+    <t>PRODUCT_ONLY</t>
+  </si>
+  <si>
+    <t>MERCHANDISE</t>
+  </si>
+  <si>
+    <t>ProductOnly</t>
+  </si>
+  <si>
+    <t>EventDelivery</t>
+  </si>
+  <si>
+    <t>CD Holder - subscriber</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M10" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2725,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,18 +2762,19 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
@@ -2840,17 +2862,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>89</v>
       </c>
@@ -2938,15 +2960,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
   <si>
     <t>Execution</t>
   </si>
@@ -569,6 +569,36 @@
   </si>
   <si>
     <t>CD Holder - subscriber</t>
+  </si>
+  <si>
+    <t>Product Only Schedule</t>
+  </si>
+  <si>
+    <t>Product only Schedule</t>
+  </si>
+  <si>
+    <t>Back Issues Schedule</t>
+  </si>
+  <si>
+    <t>Back Issues</t>
+  </si>
+  <si>
+    <t>IssueDelivery</t>
+  </si>
+  <si>
+    <t>Include Only</t>
+  </si>
+  <si>
+    <t>BackIssues</t>
+  </si>
+  <si>
+    <t>backIssuesSchedule_START</t>
+  </si>
+  <si>
+    <t>backIssuesSchedule_END</t>
+  </si>
+  <si>
+    <t>BACKISSUE</t>
   </si>
 </sst>
 </file>
@@ -647,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -666,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2746,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,10 +3074,10 @@
         <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>179</v>
@@ -3073,6 +3104,128 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R18" s="12">
+        <v>38504</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3080,6 +3233,7 @@
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="214">
   <si>
     <t>Execution</t>
   </si>
@@ -599,6 +599,66 @@
   </si>
   <si>
     <t>BACKISSUE</t>
+  </si>
+  <si>
+    <t>JUN 05</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>UK CWO-DOVEBR6</t>
+  </si>
+  <si>
+    <t>maintSchedule_START</t>
+  </si>
+  <si>
+    <t>maintSchedule_END</t>
+  </si>
+  <si>
+    <t>UK CWO-DOVEBR6-Edited</t>
+  </si>
+  <si>
+    <t>NewDesc</t>
+  </si>
+  <si>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>cARenewalStartegy_START</t>
+  </si>
+  <si>
+    <t>cARenewalStartegy_END</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Test Desc</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>RenewalType</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>SKFBJUN16</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>5@5&gt;6@22.45DD</t>
+  </si>
+  <si>
+    <t>CONTINOUS_AUTHORITY</t>
   </si>
 </sst>
 </file>
@@ -677,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -696,7 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2777,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +2854,8 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2798,6 +2863,8 @@
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3216,8 +3283,8 @@
       <c r="Q18" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R18" s="12">
-        <v>38504</v>
+      <c r="R18" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>1</v>
@@ -3226,6 +3293,166 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="12">
+        <v>42564</v>
+      </c>
+      <c r="I28" s="13">
+        <v>42564</v>
+      </c>
+      <c r="J28" s="13">
+        <v>42564</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3234,6 +3461,8 @@
     <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="C13" r:id="rId3"/>
     <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3510"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Service" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer Billing" sheetId="2" r:id="rId2"/>
-    <sheet name="Account Admin" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Customer Billing" sheetId="2" r:id="rId3"/>
+    <sheet name="Account Admin" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="275">
   <si>
     <t>Execution</t>
   </si>
@@ -165,9 +166,6 @@
     <t>Vishnu</t>
   </si>
   <si>
-    <t>PRO20-6</t>
-  </si>
-  <si>
     <t>customerServiceType2_END</t>
   </si>
   <si>
@@ -213,9 +211,6 @@
     <t>GAddress</t>
   </si>
   <si>
-    <t>CCPROM20-6</t>
-  </si>
-  <si>
     <t>customerServiceType4_START</t>
   </si>
   <si>
@@ -226,9 +221,6 @@
   </si>
   <si>
     <t>CustomerReference</t>
-  </si>
-  <si>
-    <t>DOVECU4347472</t>
   </si>
   <si>
     <t>customerServiceTypeSearch_START</t>
@@ -271,21 +263,12 @@
 </t>
   </si>
   <si>
-    <t>TESTER</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>Dovetail</t>
   </si>
   <si>
-    <t>LE10 1DD</t>
-  </si>
-  <si>
-    <t>82 CASTLE STREET</t>
-  </si>
-  <si>
     <t>vvijayakumar</t>
   </si>
   <si>
@@ -304,9 +287,6 @@
     <t>Free</t>
   </si>
   <si>
-    <t>FREEPRO20-6</t>
-  </si>
-  <si>
     <t>customerServiceType7_START</t>
   </si>
   <si>
@@ -319,9 +299,6 @@
     <t>TesthouseIndia</t>
   </si>
   <si>
-    <t>NoRun</t>
-  </si>
-  <si>
     <t>customerBillingCheckDetails_START</t>
   </si>
   <si>
@@ -340,9 +317,6 @@
     <t>cSServiceAmend_END</t>
   </si>
   <si>
-    <t>DOVECU286338</t>
-  </si>
-  <si>
     <t>NewName</t>
   </si>
   <si>
@@ -391,9 +365,6 @@
     <t>cSUpgradeSub_END</t>
   </si>
   <si>
-    <t>Test promo 17-2-16</t>
-  </si>
-  <si>
     <t>cSAmendContract_SystemLetter_START</t>
   </si>
   <si>
@@ -412,9 +383,6 @@
     <t>cSAmendContract_Suspend_END</t>
   </si>
   <si>
-    <t>DOVECU4347471</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -481,9 +449,6 @@
     <t>cSAmendContract_ChangeTerm_END</t>
   </si>
   <si>
-    <t>DOVECU4347580</t>
-  </si>
-  <si>
     <t>ADD_ENTITLEMENT</t>
   </si>
   <si>
@@ -523,9 +488,6 @@
     <t>RM1 2RF</t>
   </si>
   <si>
-    <t>DOVECU1033324</t>
-  </si>
-  <si>
     <t xml:space="preserve">SSunil </t>
   </si>
   <si>
@@ -544,12 +506,6 @@
     <t>MATCH OF THE DAY</t>
   </si>
   <si>
-    <t>4242424242424242</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>productOnlySchedule_START</t>
   </si>
   <si>
@@ -571,101 +527,329 @@
     <t>CD Holder - subscriber</t>
   </si>
   <si>
-    <t>Product Only Schedule</t>
-  </si>
-  <si>
-    <t>Product only Schedule</t>
-  </si>
-  <si>
-    <t>Back Issues Schedule</t>
-  </si>
-  <si>
-    <t>Back Issues</t>
-  </si>
-  <si>
-    <t>IssueDelivery</t>
-  </si>
-  <si>
-    <t>Include Only</t>
-  </si>
-  <si>
-    <t>BackIssues</t>
-  </si>
-  <si>
-    <t>backIssuesSchedule_START</t>
-  </si>
-  <si>
-    <t>backIssuesSchedule_END</t>
-  </si>
-  <si>
-    <t>BACKISSUE</t>
-  </si>
-  <si>
-    <t>JUN 05</t>
+    <t>cSAmendContract_AddPayment_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_AddPayment_END</t>
+  </si>
+  <si>
+    <t>cSAmendContract_ChangeStartIssue_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_ChangeStartIssue_END</t>
+  </si>
+  <si>
+    <t>differentDeliveryAddress_START</t>
+  </si>
+  <si>
+    <t>differentDeliveryAddress_END</t>
+  </si>
+  <si>
+    <t>getDefaultPromotion_START</t>
+  </si>
+  <si>
+    <t>getDefaultPromotion_END</t>
+  </si>
+  <si>
+    <t>cSAmendContract_CancelImmediately_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_CancelImmediately_END</t>
+  </si>
+  <si>
+    <t>cSAmendContract_CancelOnExpiry_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_CancelOnExpiry_END</t>
+  </si>
+  <si>
+    <t>customerServiceType8_START</t>
+  </si>
+  <si>
+    <t>customerServiceType8_END</t>
+  </si>
+  <si>
+    <t>FT BUSINESS</t>
+  </si>
+  <si>
+    <t>INVESTORS CHRONICLE</t>
+  </si>
+  <si>
+    <t>FTHOME2</t>
+  </si>
+  <si>
+    <t>Continuous credit card</t>
+  </si>
+  <si>
+    <t>giftSubscriptionRecepientDetails_START</t>
+  </si>
+  <si>
+    <t>giftSubscriptionRecepientDetails_END</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>GCustTitle</t>
+  </si>
+  <si>
+    <t>GCustTitle1</t>
+  </si>
+  <si>
+    <t>GFirstname1</t>
+  </si>
+  <si>
+    <t>GSurname1</t>
+  </si>
+  <si>
+    <t>GCustTitle2</t>
+  </si>
+  <si>
+    <t>GFirstname2</t>
+  </si>
+  <si>
+    <t>GSurname2</t>
+  </si>
+  <si>
+    <t>GEditCustTitle</t>
+  </si>
+  <si>
+    <t>GEditFirstName</t>
+  </si>
+  <si>
+    <t>GEditSurname</t>
+  </si>
+  <si>
+    <t>SREE</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>SREEJITH</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Test Automation Progress - Regression Suite</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>TOTAL TEST CASES</t>
+  </si>
+  <si>
+    <t>AUTOMATED - Uday</t>
+  </si>
+  <si>
+    <t>AUTOMATED - Vishnu</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>BATCH EXECUTION</t>
+  </si>
+  <si>
+    <t>JENKINS INTEGRATION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Customer Services</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
   </si>
   <si>
     <t>Schedule</t>
   </si>
   <si>
-    <t>UK CWO-DOVEBR6</t>
-  </si>
-  <si>
-    <t>maintSchedule_START</t>
-  </si>
-  <si>
-    <t>maintSchedule_END</t>
-  </si>
-  <si>
-    <t>UK CWO-DOVEBR6-Edited</t>
-  </si>
-  <si>
-    <t>NewDesc</t>
-  </si>
-  <si>
-    <t>Edited</t>
-  </si>
-  <si>
-    <t>cARenewalStartegy_START</t>
-  </si>
-  <si>
-    <t>cARenewalStartegy_END</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Test Desc</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>RenewalType</t>
-  </si>
-  <si>
-    <t>Promotion</t>
-  </si>
-  <si>
-    <t>SKFBJUN16</t>
-  </si>
-  <si>
-    <t>Offer</t>
-  </si>
-  <si>
-    <t>5@5&gt;6@22.45DD</t>
-  </si>
-  <si>
-    <t>CONTINOUS_AUTHORITY</t>
+    <t>Renewal Strategy</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Account Admin(addtnl)</t>
+  </si>
+  <si>
+    <t>Subscription Management</t>
+  </si>
+  <si>
+    <t>Customer Billing</t>
+  </si>
+  <si>
+    <t>Data File Import</t>
+  </si>
+  <si>
+    <t>System Management</t>
+  </si>
+  <si>
+    <t>Client Billing</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>SAP Tool</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>demographicsVerification_START</t>
+  </si>
+  <si>
+    <t>demographicsVerification_END</t>
+  </si>
+  <si>
+    <t>customerEvents_START</t>
+  </si>
+  <si>
+    <t>customerEvents_END</t>
+  </si>
+  <si>
+    <t>DOVECU4533639</t>
+  </si>
+  <si>
+    <t>ME9 8GU</t>
+  </si>
+  <si>
+    <t>800 GUILLAT AVENUE</t>
+  </si>
+  <si>
+    <t>FREEREP</t>
+  </si>
+  <si>
+    <t>CREATURE MEDIA LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATIONAL GEOGRAPHIC KIDS </t>
+  </si>
+  <si>
+    <t>RC98</t>
+  </si>
+  <si>
+    <t>DOVECU4533637</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Please tick to opt into MOTD (brand) email communication</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>DOVECU4533642</t>
+  </si>
+  <si>
+    <t>INVESTORS CHRONICLE BUNDLE</t>
+  </si>
+  <si>
+    <t>NEWPOLY</t>
+  </si>
+  <si>
+    <t>cSAmendContract_PaymentDetails_START</t>
+  </si>
+  <si>
+    <t>cSAmendContract_PaymentDetails_END</t>
+  </si>
+  <si>
+    <t>DOVECU4533644</t>
+  </si>
+  <si>
+    <t>DOVECU4533643</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>ChequeNumber</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>DDCollectionDate</t>
+  </si>
+  <si>
+    <t>IssueNumber</t>
+  </si>
+  <si>
+    <t>ISSUE 413</t>
+  </si>
+  <si>
+    <t>DeliveryPostCode</t>
+  </si>
+  <si>
+    <t>LE101DD</t>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+  </si>
+  <si>
+    <t>Cancelled - Financial reasons</t>
+  </si>
+  <si>
+    <t>DemographicProperty1</t>
+  </si>
+  <si>
+    <t>DemographicProperty2</t>
+  </si>
+  <si>
+    <t>DemographicProperty3</t>
+  </si>
+  <si>
+    <t>RefundAmount</t>
+  </si>
+  <si>
+    <t>BRITISH HEART FOUNDATION 58 CASTLE STREET HINCKLEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,8 +872,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +912,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -732,12 +954,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,9 +1081,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,38 +1479,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:AQ139"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="55.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
     <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1190,7 +1574,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1199,10 +1583,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -1211,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -1226,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -1240,7 +1624,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1283,13 +1667,13 @@
         <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>0</v>
@@ -1297,7 +1681,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -1306,19 +1690,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -1333,10 +1717,10 @@
         <v>48</v>
       </c>
       <c r="N8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>1</v>
@@ -1344,12 +1728,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1387,19 +1771,19 @@
         <v>18</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
@@ -1419,7 +1803,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -1428,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1440,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -1455,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>16</v>
@@ -1470,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>27</v>
@@ -1484,15 +1868,15 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1542,9 +1926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -1556,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1565,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -1592,17 +1976,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,45 +2000,45 @@
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="N22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
@@ -1663,56 +2047,56 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1747,36 +2131,39 @@
         <v>18</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R27" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="U27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>4</v>
@@ -1785,19 +2172,19 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>161</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
@@ -1827,26 +2214,29 @@
         <v>48</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1886,28 +2276,28 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>16</v>
@@ -1924,12 +2314,12 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -1946,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
@@ -1967,13 +2357,13 @@
         <v>18</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>0</v>
@@ -1981,59 +2371,59 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="P38" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2047,21 +2437,24 @@
         <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>4</v>
@@ -2070,26 +2463,29 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2106,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>10</v>
@@ -2147,7 +2543,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>4</v>
@@ -2156,13 +2552,13 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>65</v>
+        <v>252</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>9</v>
@@ -2171,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>16</v>
@@ -2200,12 +2596,12 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -2222,10 +2618,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>10</v>
@@ -2266,25 +2662,25 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>9</v>
@@ -2293,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>16</v>
@@ -2322,12 +2718,12 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -2344,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>0</v>
@@ -2355,7 +2751,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>4</v>
@@ -2364,13 +2760,13 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>1</v>
@@ -2378,12 +2774,12 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -2400,10 +2796,10 @@
         <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>0</v>
@@ -2411,7 +2807,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>4</v>
@@ -2420,13 +2816,13 @@
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>1</v>
@@ -2434,12 +2830,12 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -2456,13 +2852,13 @@
         <v>6</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>0</v>
@@ -2470,7 +2866,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>4</v>
@@ -2479,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>1</v>
@@ -2496,12 +2892,12 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -2518,13 +2914,13 @@
         <v>6</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>11</v>
@@ -2533,28 +2929,28 @@
         <v>20</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>0</v>
@@ -2562,7 +2958,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>4</v>
@@ -2571,40 +2967,40 @@
         <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="S73" s="9" t="s">
         <v>1</v>
@@ -2612,12 +3008,12 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -2634,10 +3030,10 @@
         <v>6</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>0</v>
@@ -2645,7 +3041,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>4</v>
@@ -2654,13 +3050,13 @@
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>1</v>
@@ -2668,15 +3064,15 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>3</v>
       </c>
@@ -2690,27 +3086,27 @@
         <v>6</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>4</v>
@@ -2719,19 +3115,19 @@
         <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J83" s="10">
         <v>2</v>
@@ -2740,9 +3136,1452 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+      <c r="AM95"/>
+      <c r="AN95"/>
+      <c r="AO95"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
+      <c r="AM100"/>
+      <c r="AN100"/>
+      <c r="AO100"/>
+    </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
+      <c r="AL102"/>
+      <c r="AM102"/>
+      <c r="AN102"/>
+      <c r="AO102"/>
+      <c r="AP102"/>
+      <c r="AQ102"/>
+    </row>
+    <row r="103" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
+      <c r="AM103"/>
+      <c r="AN103"/>
+      <c r="AO103"/>
+      <c r="AP103"/>
+      <c r="AQ103"/>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
+      <c r="AM105"/>
+      <c r="AN105"/>
+      <c r="AO105"/>
+    </row>
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
+      <c r="AM107"/>
+      <c r="AN107"/>
+      <c r="AO107"/>
+    </row>
+    <row r="108" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
+      <c r="AM108"/>
+      <c r="AN108"/>
+      <c r="AO108"/>
+    </row>
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110"/>
+      <c r="AO110"/>
+    </row>
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
+      <c r="AM112"/>
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+    </row>
+    <row r="113" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H113" s="10">
+        <v>39.99</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+      <c r="AM113"/>
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
+      <c r="AM115"/>
+      <c r="AN115"/>
+      <c r="AO115"/>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117"/>
+      <c r="AI117"/>
+      <c r="AJ117"/>
+      <c r="AK117"/>
+      <c r="AL117"/>
+      <c r="AM117"/>
+      <c r="AN117"/>
+      <c r="AO117"/>
+    </row>
+    <row r="118" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118"/>
+      <c r="AI118"/>
+      <c r="AJ118"/>
+      <c r="AK118"/>
+      <c r="AL118"/>
+      <c r="AM118"/>
+      <c r="AN118"/>
+      <c r="AO118"/>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P123" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y127" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE127" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S128" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="V128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W128" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="X128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y128" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z128" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB128" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC128" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD128" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE128" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q133" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R133" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2765,9 +4604,19 @@
     <hyperlink ref="C73" r:id="rId16"/>
     <hyperlink ref="C78" r:id="rId17"/>
     <hyperlink ref="C83" r:id="rId18"/>
+    <hyperlink ref="C123" r:id="rId19"/>
+    <hyperlink ref="C128" r:id="rId20"/>
+    <hyperlink ref="C133" r:id="rId21"/>
+    <hyperlink ref="C138" r:id="rId22"/>
+    <hyperlink ref="C88" r:id="rId23"/>
+    <hyperlink ref="C93" r:id="rId24"/>
+    <hyperlink ref="C98" r:id="rId25"/>
+    <hyperlink ref="C103" r:id="rId26"/>
+    <hyperlink ref="C118" r:id="rId27"/>
+    <hyperlink ref="C113" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
   <ignoredErrors>
     <ignoredError sqref="O3:P3 N8:O8" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -2775,6 +4624,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>80</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20">
+        <v>80</v>
+      </c>
+      <c r="I3" s="21">
+        <v>42559</v>
+      </c>
+      <c r="J3" s="22">
+        <v>42564</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>54</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <v>54</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
+        <v>16</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20">
+        <v>12</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>49</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20">
+        <v>49</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20">
+        <v>9</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>39</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20">
+        <v>39</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="18">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="18">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20">
+        <v>27</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="18">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
+        <v>5</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="18">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19">
+        <v>7</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
+        <v>7</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="18">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>42</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
+        <v>42</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="18">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20">
+        <v>23</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="18">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>10</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
+        <v>10</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20">
+        <v>11</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27">
+        <v>393</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
+        <v>393</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2794,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -2813,13 +5210,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -2827,7 +5224,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2838,12 +5235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,8 +5251,6 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2863,13 +5258,11 @@
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2918,7 +5311,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -2939,7 +5332,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
@@ -2962,12 +5355,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3016,7 +5409,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -3037,7 +5430,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
@@ -3060,12 +5453,12 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3106,13 +5499,13 @@
         <v>41</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>0</v>
@@ -3120,7 +5513,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -3141,19 +5534,19 @@
         <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>31</v>
@@ -3162,7 +5555,7 @@
         <v>44</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>1</v>
@@ -3170,289 +5563,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="12">
-        <v>42564</v>
-      </c>
-      <c r="I28" s="13">
-        <v>42564</v>
-      </c>
-      <c r="J28" s="13">
-        <v>42564</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3460,9 +5571,6 @@
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="C18" r:id="rId4"/>
-    <hyperlink ref="C23" r:id="rId5"/>
-    <hyperlink ref="C28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
